--- a/comp130-schedule-5-13-2025.xlsx
+++ b/comp130-schedule-5-13-2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\intro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\git\comp130-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E9B32A-481D-4175-90FA-360C60F5DDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C378E18A-9490-464E-87A3-B8DF5448C1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="162">
   <si>
     <t>Mon</t>
   </si>
@@ -211,9 +211,6 @@
     <t>detailed topic</t>
   </si>
   <si>
-    <t>required reading</t>
-  </si>
-  <si>
     <t>HW2</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
   </si>
   <si>
     <t>Lab 8</t>
-  </si>
-  <si>
-    <t>Lab 9</t>
   </si>
   <si>
     <t>day</t>
@@ -390,21 +384,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Social Good Career blog post </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(see Readings webpage)</t>
-    </r>
-  </si>
-  <si>
     <t>encapsulation; generalization; refactoring</t>
   </si>
   <si>
@@ -412,9 +391,6 @@
   </si>
   <si>
     <t>Social/Ethical II: Algorithms &amp; Ethics</t>
-  </si>
-  <si>
-    <t>Social/Ethical III: Computing &amp; The Greater Good</t>
   </si>
   <si>
     <r>
@@ -468,32 +444,6 @@
   </si>
   <si>
     <t>Ch1, 2.1, 2.2; SSG1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3.3-3.8; </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>13.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; SSG2</t>
-    </r>
   </si>
   <si>
     <t>4.1, 4.2; SSG3</t>
@@ -692,55 +642,61 @@
     <t>11.1</t>
   </si>
   <si>
+    <t>11.2-11.4</t>
+  </si>
+  <si>
+    <t>dictionary iteration and reverse lookup</t>
+  </si>
+  <si>
+    <t>lists in dictionaries; memos</t>
+  </si>
+  <si>
+    <t>11.5, 11.6, 11.8</t>
+  </si>
+  <si>
+    <t>dictionary basics</t>
+  </si>
+  <si>
+    <t>optional lab exam practice session</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">dictionary basics </t>
+      <t xml:space="preserve">Social Good Career article </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[no class - recorded lecture]</t>
-    </r>
-  </si>
-  <si>
-    <t>11.2-11.4</t>
-  </si>
-  <si>
-    <t>dictionary iteration and reverse lookup</t>
-  </si>
-  <si>
-    <t>lists in dictionaries; memos</t>
-  </si>
-  <si>
-    <t>11.5, 11.6, 11.8</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Lab 9: Harnessing Evolution</t>
+      <t>(see Readings webpage)</t>
+    </r>
+  </si>
+  <si>
+    <t>Social/Ethical III: Computing &amp; The Greater Good (including open-source software)</t>
+  </si>
+  <si>
+    <t>3.3-3.8; SSG2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">required reading
+</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-optional lab exam practice session</t>
+      <t>SSG=supplementary study guide</t>
     </r>
   </si>
 </sst>
@@ -751,7 +707,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,14 +763,6 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1066,6 +1014,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1078,61 +1078,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1416,10 +1364,10 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,15 +1386,15 @@
     <col min="18" max="18" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
@@ -1458,30 +1406,30 @@
         <v>52</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>49</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="13">
-        <v>45166</v>
+        <v>45901</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="24" t="s">
         <v>50</v>
       </c>
       <c r="F2" s="14" t="s">
@@ -1492,44 +1440,44 @@
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="13">
         <f>C2+2</f>
-        <v>45168</v>
+        <v>45903</v>
       </c>
       <c r="D3" s="12">
         <f t="shared" ref="D3:D22" si="0">D2+1</f>
         <v>2</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="13">
         <f>C3+2</f>
-        <v>45170</v>
+        <v>45905</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="14" t="s">
         <v>40</v>
       </c>
@@ -1540,7 +1488,7 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <v>2</v>
       </c>
       <c r="B5" s="12" t="str">
@@ -1549,80 +1497,80 @@
       </c>
       <c r="C5" s="13">
         <f>C2+7</f>
-        <v>45173</v>
+        <v>45908</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>86</v>
+      <c r="E5" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="12" t="str">
         <f>B3</f>
         <v>Wed</v>
       </c>
       <c r="C6" s="13">
         <f>C5+2</f>
-        <v>45175</v>
+        <v>45910</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="14" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="12" t="str">
         <f t="shared" ref="B7" si="1">B4</f>
         <v>Fri</v>
       </c>
       <c r="C7" s="13">
         <f>C6+2</f>
-        <v>45177</v>
+        <v>45912</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>115</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="27">
         <v>3</v>
       </c>
       <c r="B8" s="12" t="str">
@@ -1631,83 +1579,83 @@
       </c>
       <c r="C8" s="13">
         <f>C5+7</f>
-        <v>45180</v>
+        <v>45915</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>87</v>
+      <c r="E8" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q8" s="25"/>
+        <v>53</v>
+      </c>
+      <c r="Q8" s="43"/>
     </row>
     <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="12" t="str">
         <f>B6</f>
         <v>Wed</v>
       </c>
       <c r="C9" s="13">
         <f>C8+2</f>
-        <v>45182</v>
+        <v>45917</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="25"/>
+        <v>72</v>
+      </c>
+      <c r="Q9" s="43"/>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="12" t="str">
         <f t="shared" ref="B10" si="2">B7</f>
         <v>Fri</v>
       </c>
       <c r="C10" s="13">
         <f>C9+2</f>
-        <v>45184</v>
+        <v>45919</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="12"/>
-      <c r="Q10" s="25"/>
+      <c r="Q10" s="43"/>
     </row>
     <row r="11" spans="1:17" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="27">
         <v>4</v>
       </c>
       <c r="B11" s="12" t="str">
@@ -1716,7 +1664,7 @@
       </c>
       <c r="C11" s="13">
         <f>C8+7</f>
-        <v>45187</v>
+        <v>45922</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
@@ -1724,72 +1672,72 @@
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>109</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="12" t="str">
         <f>B9</f>
         <v>Wed</v>
       </c>
       <c r="C12" s="13">
         <f>C11+2</f>
-        <v>45189</v>
+        <v>45924</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>89</v>
+      <c r="E12" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="12" t="str">
         <f t="shared" ref="B13" si="3">B10</f>
         <v>Fri</v>
       </c>
       <c r="C13" s="13">
         <f>C12+2</f>
-        <v>45191</v>
+        <v>45926</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" ht="65.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="A14" s="27">
         <v>5</v>
       </c>
       <c r="B14" s="12" t="str">
@@ -1798,7 +1746,7 @@
       </c>
       <c r="C14" s="13">
         <f>C11+7</f>
-        <v>45194</v>
+        <v>45929</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
@@ -1806,72 +1754,72 @@
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="12" t="str">
         <f>B12</f>
         <v>Wed</v>
       </c>
       <c r="C15" s="13">
         <f>C14+2</f>
-        <v>45196</v>
+        <v>45931</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E15" s="28" t="s">
-        <v>88</v>
+      <c r="E15" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="12" t="str">
         <f>B13</f>
         <v>Fri</v>
       </c>
       <c r="C16" s="13">
         <f>C15+2</f>
-        <v>45198</v>
+        <v>45933</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+      <c r="A17" s="27">
         <v>6</v>
       </c>
       <c r="B17" s="12" t="str">
@@ -1880,7 +1828,7 @@
       </c>
       <c r="C17" s="13">
         <f>C14+7</f>
-        <v>45201</v>
+        <v>45936</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
@@ -1888,25 +1836,25 @@
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="16" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="12" t="str">
         <f>B15</f>
         <v>Wed</v>
       </c>
       <c r="C18" s="13">
         <f>C17+2</f>
-        <v>45203</v>
+        <v>45938</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
@@ -1923,14 +1871,14 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="12" t="str">
         <f t="shared" ref="B19" si="4">B16</f>
         <v>Fri</v>
       </c>
       <c r="C19" s="13">
         <f>C18+2</f>
-        <v>45205</v>
+        <v>45940</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="0"/>
@@ -1938,14 +1886,14 @@
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="14"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+      <c r="A20" s="27">
         <v>7</v>
       </c>
       <c r="B20" s="12" t="str">
@@ -1954,14 +1902,14 @@
       </c>
       <c r="C20" s="13">
         <f>C17+7</f>
-        <v>45208</v>
+        <v>45943</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>90</v>
+      <c r="E20" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>47</v>
@@ -1971,130 +1919,130 @@
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="12" t="str">
         <f>B18</f>
         <v>Wed</v>
       </c>
       <c r="C21" s="13">
         <f>C20+2</f>
-        <v>45210</v>
+        <v>45945</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="14" t="s">
         <v>48</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="12" t="str">
         <f t="shared" ref="B22" si="5">B19</f>
         <v>Fri</v>
       </c>
       <c r="C22" s="13">
         <f>C21+2</f>
-        <v>45212</v>
+        <v>45947</v>
       </c>
       <c r="D22" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
+      <c r="A23" s="27">
         <v>8</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="12" t="str">
         <f>B21</f>
         <v>Wed</v>
       </c>
       <c r="C24" s="13">
         <f>C21+7</f>
-        <v>45217</v>
+        <v>45952</v>
       </c>
       <c r="D24" s="12">
         <f>D22+1</f>
         <v>22</v>
       </c>
-      <c r="E24" s="28"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="12" t="str">
         <f t="shared" ref="B25" si="6">B22</f>
         <v>Fri</v>
       </c>
       <c r="C25" s="13">
         <f>C24+2</f>
-        <v>45219</v>
+        <v>45954</v>
       </c>
       <c r="D25" s="12">
         <f t="shared" ref="D25:D38" si="7">D24+1</f>
         <v>23</v>
       </c>
-      <c r="E25" s="28" t="s">
-        <v>92</v>
+      <c r="E25" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+      <c r="A26" s="27">
         <v>9</v>
       </c>
       <c r="B26" s="12" t="str">
@@ -2103,80 +2051,80 @@
       </c>
       <c r="C26" s="13">
         <f>C20+14</f>
-        <v>45222</v>
+        <v>45957</v>
       </c>
       <c r="D26" s="12">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="E26" s="28"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="12" t="str">
         <f>B24</f>
         <v>Wed</v>
       </c>
       <c r="C27" s="13">
         <f>C26+2</f>
-        <v>45224</v>
+        <v>45959</v>
       </c>
       <c r="D27" s="12">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="E27" s="28"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="12" t="str">
         <f t="shared" ref="B28" si="8">B25</f>
         <v>Fri</v>
       </c>
       <c r="C28" s="13">
         <f>C27+2</f>
-        <v>45226</v>
+        <v>45961</v>
       </c>
       <c r="D28" s="12">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="E28" s="29" t="s">
-        <v>93</v>
+      <c r="E28" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="26">
+      <c r="A29" s="27">
         <v>10</v>
       </c>
       <c r="B29" s="12" t="str">
@@ -2185,78 +2133,78 @@
       </c>
       <c r="C29" s="13">
         <f>C26+7</f>
-        <v>45229</v>
+        <v>45964</v>
       </c>
       <c r="D29" s="12">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="12" t="str">
         <f>B27</f>
         <v>Wed</v>
       </c>
       <c r="C30" s="13">
         <f>C29+2</f>
-        <v>45231</v>
+        <v>45966</v>
       </c>
       <c r="D30" s="12">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="E30" s="31"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G30" s="21" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="12" t="str">
         <f t="shared" ref="B31" si="9">B28</f>
         <v>Fri</v>
       </c>
       <c r="C31" s="13">
         <f>C30+2</f>
-        <v>45233</v>
+        <v>45968</v>
       </c>
       <c r="D31" s="12">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="E31" s="29" t="s">
-        <v>94</v>
+      <c r="E31" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
+      <c r="A32" s="27">
         <v>11</v>
       </c>
       <c r="B32" s="12" t="str">
@@ -2265,80 +2213,80 @@
       </c>
       <c r="C32" s="13">
         <f>C29+7</f>
-        <v>45236</v>
+        <v>45971</v>
       </c>
       <c r="D32" s="12">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="E32" s="31"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="12" t="str">
         <f>B30</f>
         <v>Wed</v>
       </c>
       <c r="C33" s="13">
         <f>C32+2</f>
-        <v>45238</v>
+        <v>45973</v>
       </c>
       <c r="D33" s="12">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="E33" s="28" t="s">
-        <v>95</v>
+      <c r="E33" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="12" t="str">
         <f t="shared" ref="B34" si="10">B31</f>
         <v>Fri</v>
       </c>
       <c r="C34" s="13">
         <f>C33+2</f>
-        <v>45240</v>
+        <v>45975</v>
       </c>
       <c r="D34" s="12">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="E34" s="28"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="26">
+      <c r="A35" s="27">
         <v>12</v>
       </c>
       <c r="B35" s="12" t="str">
@@ -2347,31 +2295,31 @@
       </c>
       <c r="C35" s="13">
         <f>C32+7</f>
-        <v>45243</v>
+        <v>45978</v>
       </c>
       <c r="D35" s="12">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="E35" s="28"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
       <c r="B36" s="12" t="str">
         <f>B33</f>
         <v>Wed</v>
       </c>
       <c r="C36" s="13">
         <f>C35+2</f>
-        <v>45245</v>
+        <v>45980</v>
       </c>
       <c r="D36" s="12">
         <f t="shared" si="7"/>
@@ -2383,21 +2331,21 @@
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="12" t="str">
         <f t="shared" ref="B37" si="11">B34</f>
         <v>Fri</v>
       </c>
       <c r="C37" s="13">
         <f>C36+2</f>
-        <v>45247</v>
+        <v>45982</v>
       </c>
       <c r="D37" s="12">
         <f t="shared" si="7"/>
@@ -2405,14 +2353,14 @@
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="14"/>
       <c r="I37" s="12"/>
     </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="26">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="27">
         <v>13</v>
       </c>
       <c r="B38" s="12" t="str">
@@ -2421,52 +2369,52 @@
       </c>
       <c r="C38" s="13">
         <f>C35+7</f>
-        <v>45250</v>
+        <v>45985</v>
       </c>
       <c r="D38" s="12">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="E38" s="28" t="s">
-        <v>96</v>
+      <c r="E38" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="27" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="37"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="33"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="40"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="26">
+      <c r="A41" s="27">
         <v>14</v>
       </c>
       <c r="B41" s="12" t="str">
@@ -2475,76 +2423,76 @@
       </c>
       <c r="C41" s="13">
         <f>C38+7</f>
-        <v>45257</v>
+        <v>45992</v>
       </c>
       <c r="D41" s="12">
         <f>D38+1</f>
         <v>37</v>
       </c>
-      <c r="E41" s="28"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="12" t="str">
         <f>B36</f>
         <v>Wed</v>
       </c>
       <c r="C42" s="13">
         <f>C41+2</f>
-        <v>45259</v>
+        <v>45994</v>
       </c>
       <c r="D42" s="12">
         <f>D41+1</f>
         <v>38</v>
       </c>
-      <c r="E42" s="28"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="12" t="str">
         <f>B37</f>
         <v>Fri</v>
       </c>
       <c r="C43" s="13">
         <f>C42+2</f>
-        <v>45261</v>
+        <v>45996</v>
       </c>
       <c r="D43" s="12">
         <f>D42+1</f>
         <v>39</v>
       </c>
-      <c r="E43" s="28" t="s">
-        <v>97</v>
+      <c r="E43" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="14"/>
       <c r="I43" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="26">
+      <c r="A44" s="27">
         <v>15</v>
       </c>
       <c r="B44" s="12" t="str">
@@ -2553,64 +2501,62 @@
       </c>
       <c r="C44" s="13">
         <f>C41+7</f>
-        <v>45264</v>
+        <v>45999</v>
       </c>
       <c r="D44" s="12">
         <f>D43+1</f>
         <v>40</v>
       </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="41" t="s">
-        <v>126</v>
+      <c r="E44" s="23"/>
+      <c r="F44" s="37" t="s">
+        <v>121</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="14"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="12" t="str">
         <f>B42</f>
         <v>Wed</v>
       </c>
       <c r="C45" s="13">
         <f>C44+2</f>
-        <v>45266</v>
+        <v>46001</v>
       </c>
       <c r="D45" s="12">
         <f>D44+1</f>
         <v>41</v>
       </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="42"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="38"/>
       <c r="G45" s="15"/>
       <c r="H45" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="I45" s="44" t="s">
-        <v>80</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="I45" s="22"/>
     </row>
     <row r="46" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
+      <c r="A46" s="27"/>
       <c r="B46" s="12" t="str">
         <f t="shared" ref="B46" si="12">B43</f>
         <v>Fri</v>
       </c>
       <c r="C46" s="13">
         <f>C45+2</f>
-        <v>45268</v>
+        <v>46003</v>
       </c>
       <c r="D46" s="12">
         <f>D45+1</f>
         <v>42</v>
       </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="43"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="39"/>
       <c r="G46" s="15"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2618,40 +2564,22 @@
         <v>16</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="C47" s="13">
-        <v>45271</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="24"/>
+        <v>46007</v>
+      </c>
+      <c r="D47" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="41"/>
+      <c r="F47" s="42"/>
       <c r="G47" s="15"/>
       <c r="H47" s="14"/>
       <c r="I47" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F39:I40"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F44:F46"/>
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="Q8:Q10"/>
     <mergeCell ref="A38:A40"/>
@@ -2668,6 +2596,24 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="E25:E27"/>
     <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F39:I40"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
